--- a/Application/PackerReports (26 Sep 2016).xlsx
+++ b/Application/PackerReports (26 Sep 2016).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="91">
   <si>
     <t>Doorstep Chef Packer Sheet  Week: 8</t>
   </si>
@@ -22,7 +22,7 @@
     <t/>
   </si>
   <si>
-    <t>Collection - 021 551 4677</t>
+    <t>Collection</t>
   </si>
   <si>
     <t>Route: 0</t>
@@ -46,42 +46,48 @@
     <t>Exclutions</t>
   </si>
   <si>
-    <t>Jackson Frost</t>
+    <t>Bill Gates</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>No tomato</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Seth Rogen</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>No Meat</t>
+  </si>
+  <si>
+    <t>Dane Left</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Low Carb</t>
+  </si>
+  <si>
+    <t>No Red's</t>
+  </si>
+  <si>
+    <t>Michael Jackson</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>Standard</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Bill Gates</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>No tomato</t>
-  </si>
-  <si>
-    <t>Dane Left</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Low Carb</t>
-  </si>
-  <si>
-    <t>No Red's</t>
-  </si>
-  <si>
-    <t>Michael Jackson</t>
-  </si>
-  <si>
     <t>Kiddies</t>
   </si>
   <si>
@@ -100,9 +106,6 @@
     <t>Darth Vader</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
@@ -154,15 +157,12 @@
     <t>Fish once a week and no tough meat</t>
   </si>
   <si>
-    <t>Keanu - 074 644 6895</t>
+    <t>Keanu</t>
   </si>
   <si>
     <t>Route: 1</t>
   </si>
   <si>
-    <t>No Nuts</t>
-  </si>
-  <si>
     <t>James Earl Jones</t>
   </si>
   <si>
@@ -232,21 +232,12 @@
     <t>Alan Walker</t>
   </si>
   <si>
-    <t>Michael - 078 965 9658</t>
+    <t>Michael</t>
   </si>
   <si>
     <t>Route: 2</t>
   </si>
   <si>
-    <t>James De Franko</t>
-  </si>
-  <si>
-    <t>No Peanuts</t>
-  </si>
-  <si>
-    <t>Less Cheese</t>
-  </si>
-  <si>
     <t>Indiana Jones</t>
   </si>
   <si>
@@ -260,12 +251,6 @@
   </si>
   <si>
     <t>Michael Bay</t>
-  </si>
-  <si>
-    <t>Benjamin Franklin</t>
-  </si>
-  <si>
-    <t>Less Water</t>
   </si>
   <si>
     <t>Rita Ora</t>
@@ -622,7 +607,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -781,16 +766,16 @@
       </bottom>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="8"/>
       </left>
-      <right>
+      <right style="thin">
         <color indexed="8"/>
       </right>
-      <top>
+      <top style="medium">
         <color indexed="8"/>
       </top>
-      <bottom>
+      <bottom style="thin">
         <color indexed="8"/>
       </bottom>
     </border>
@@ -798,7 +783,7 @@
       <left style="thin">
         <color indexed="8"/>
       </left>
-      <right style="thin">
+      <right>
         <color indexed="8"/>
       </right>
       <top>
@@ -818,7 +803,7 @@
       <top>
         <color indexed="8"/>
       </top>
-      <bottom style="thin">
+      <bottom>
         <color indexed="8"/>
       </bottom>
     </border>
@@ -829,7 +814,35 @@
       <right style="thin">
         <color indexed="8"/>
       </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
       <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
@@ -865,13 +878,13 @@
       </bottom>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="8"/>
       </left>
       <right style="thin">
         <color indexed="8"/>
       </right>
-      <top>
+      <top style="medium">
         <color indexed="8"/>
       </top>
       <bottom style="medium">
@@ -885,7 +898,35 @@
       <right style="thin">
         <color indexed="8"/>
       </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
       <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
         <color indexed="8"/>
       </top>
       <bottom style="medium">
@@ -896,854 +937,1328 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="487">
+  <cellXfs count="457">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="right" vertical="justify"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="right" vertical="justify"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
+      <alignment horizontal="justify" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
+      <alignment horizontal="justify" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
+      <alignment horizontal="justify" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
+      <alignment horizontal="justify" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
+      <alignment horizontal="justify" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="true"/>
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="right" vertical="justify"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="right" vertical="justify"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
+      <alignment horizontal="justify" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
+      <alignment horizontal="justify" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
+      <alignment horizontal="justify" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
+      <alignment horizontal="justify" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
+      <alignment horizontal="justify" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="true"/>
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="right" vertical="justify"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="right" vertical="justify"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
+      <alignment horizontal="justify" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
+      <alignment horizontal="justify" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
+      <alignment horizontal="justify" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
+      <alignment horizontal="justify" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
+      <alignment horizontal="justify" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="true"/>
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
   </cellXfs>
 </styleSheet>
 </file>
@@ -1775,10 +2290,10 @@
         <v>1</v>
       </c>
       <c r="D1" t="s" s="4">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="5">
         <v>2</v>
-      </c>
-      <c r="E1" t="s" s="5">
-        <v>1</v>
       </c>
       <c r="F1" t="s" s="6">
         <v>3</v>
@@ -1841,67 +2356,67 @@
         <v>13</v>
       </c>
       <c r="F4" t="s" s="24">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="25">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s" s="26">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s" s="27">
         <v>12</v>
       </c>
       <c r="D5" t="s" s="28">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s" s="29">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s" s="30">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="31">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s" s="32">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s" s="33">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s" s="34">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s" s="35">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s" s="36">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="37">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s" s="38">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s" s="39">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s" s="40">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s" s="41">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s" s="42">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -1912,16 +2427,16 @@
         <v>1</v>
       </c>
       <c r="C8" t="s" s="45">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s" s="46">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s" s="47">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s" s="48">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
@@ -1935,73 +2450,73 @@
         <v>12</v>
       </c>
       <c r="D9" t="s" s="52">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s" s="53">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s" s="54">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="55">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s" s="56">
         <v>23</v>
-      </c>
-      <c r="B10" t="s" s="56">
-        <v>11</v>
       </c>
       <c r="C10" t="s" s="57">
         <v>12</v>
       </c>
       <c r="D10" t="s" s="58">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s" s="59">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s" s="60">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="61">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s" s="62">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s" s="63">
         <v>12</v>
       </c>
       <c r="D11" t="s" s="64">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s" s="65">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F11" t="s" s="66">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="67">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s" s="68">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s" s="69">
         <v>12</v>
       </c>
       <c r="D12" t="s" s="70">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s" s="71">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s" s="72">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
@@ -2012,36 +2527,36 @@
         <v>1</v>
       </c>
       <c r="C13" t="s" s="75">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s" s="76">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s" s="77">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s" s="78">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="79">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s" s="80">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s" s="81">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s" s="82">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s" s="83">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s" s="84">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15">
@@ -2052,16 +2567,16 @@
         <v>1</v>
       </c>
       <c r="C15" t="s" s="87">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s" s="88">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E15" t="s" s="89">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F15" t="s" s="90">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16">
@@ -2075,13 +2590,13 @@
         <v>12</v>
       </c>
       <c r="D16" t="s" s="94">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E16" t="s" s="95">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s" s="96">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17">
@@ -2095,13 +2610,13 @@
         <v>12</v>
       </c>
       <c r="D17" t="s" s="100">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E17" t="s" s="101">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F17" t="s" s="102">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18">
@@ -2112,16 +2627,16 @@
         <v>1</v>
       </c>
       <c r="C18" t="s" s="105">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s" s="106">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E18" t="s" s="107">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F18" t="s" s="108">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19">
@@ -2132,36 +2647,36 @@
         <v>1</v>
       </c>
       <c r="C19" t="s" s="111">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s" s="112">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E19" t="s" s="113">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F19" t="s" s="114">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="115">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s" s="116">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s" s="117">
         <v>12</v>
       </c>
       <c r="D20" t="s" s="118">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E20" t="s" s="119">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F20" t="s" s="120">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21">
@@ -2172,16 +2687,16 @@
         <v>1</v>
       </c>
       <c r="C21" t="s" s="123">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s" s="124">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E21" t="s" s="125">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F21" t="s" s="126">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
@@ -2192,56 +2707,56 @@
         <v>1</v>
       </c>
       <c r="C22" t="s" s="129">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D22" t="s" s="130">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E22" t="s" s="131">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F22" t="s" s="132">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="133">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s" s="134">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C23" t="s" s="135">
         <v>12</v>
       </c>
       <c r="D23" t="s" s="136">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s" s="137">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F23" t="s" s="138">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="139">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s" s="140">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s" s="141">
         <v>12</v>
       </c>
       <c r="D24" t="s" s="142">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E24" t="s" s="143">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F24" t="s" s="144">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25">
@@ -2255,13 +2770,13 @@
         <v>12</v>
       </c>
       <c r="D25" t="s" s="148">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E25" t="s" s="149">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s" s="150">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26">
@@ -2275,39 +2790,38 @@
         <v>12</v>
       </c>
       <c r="D26" t="s" s="154">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s" s="155">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F26" t="s" s="156">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="157">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B27" t="s" s="158">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C27" t="s" s="159">
         <v>12</v>
       </c>
       <c r="D27" t="s" s="160">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E27" t="s" s="161">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s" s="162">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2340,13 +2854,13 @@
         <v>1</v>
       </c>
       <c r="D1" t="s" s="166">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s" s="167">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="F1" t="s" s="168">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -2391,162 +2905,162 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="181">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s" s="182">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s" s="183">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s" s="184">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s" s="185">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F4" t="s" s="186">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="187">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s" s="188">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s" s="189">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s" s="190">
         <v>11</v>
       </c>
-      <c r="C5" t="s" s="189">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s" s="190">
-        <v>18</v>
-      </c>
       <c r="E5" t="s" s="191">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s" s="192">
-        <v>13</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="193">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s" s="194">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s" s="195">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s" s="196">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s" s="197">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="F6" t="s" s="198">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="199">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s" s="200">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s" s="201">
         <v>12</v>
       </c>
       <c r="D7" t="s" s="202">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s" s="203">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s" s="204">
-        <v>54</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="205">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s" s="206">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s" s="207">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s" s="208">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s" s="209">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s" s="210">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="211">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s" s="212">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s" s="213">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s" s="214">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s" s="215">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s" s="216">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="217">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s" s="218">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s" s="219">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s" s="220">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s" s="221">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s" s="222">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="223">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s" s="224">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s" s="225">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s" s="226">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s" s="227">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s" s="228">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
@@ -2557,176 +3071,176 @@
         <v>1</v>
       </c>
       <c r="C12" t="s" s="231">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s" s="232">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s" s="233">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s" s="234">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="235">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="B13" t="s" s="236">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s" s="237">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s" s="238">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s" s="239">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="F13" t="s" s="240">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="241">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B14" t="s" s="242">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s" s="243">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s" s="244">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s" s="245">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="F14" t="s" s="246">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="247">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="B15" t="s" s="248">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C15" t="s" s="249">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s" s="250">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E15" t="s" s="251">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F15" t="s" s="252">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="253">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="B16" t="s" s="254">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s" s="255">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s" s="256">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E16" t="s" s="257">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="F16" t="s" s="258">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="259">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B17" t="s" s="260">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s" s="261">
         <v>12</v>
       </c>
       <c r="D17" t="s" s="262">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E17" t="s" s="263">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F17" t="s" s="264">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="265">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="B18" t="s" s="266">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s" s="267">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s" s="268">
         <v>11</v>
       </c>
-      <c r="C18" t="s" s="267">
-        <v>12</v>
-      </c>
-      <c r="D18" t="s" s="268">
-        <v>18</v>
-      </c>
       <c r="E18" t="s" s="269">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" t="s" s="270">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="271">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s" s="272">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s" s="273">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D19" t="s" s="274">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E19" t="s" s="275">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F19" t="s" s="276">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="277">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="B20" t="s" s="278">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C20" t="s" s="279">
         <v>12</v>
       </c>
       <c r="D20" t="s" s="280">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E20" t="s" s="281">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F20" t="s" s="282">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21">
@@ -2740,53 +3254,53 @@
         <v>12</v>
       </c>
       <c r="D21" t="s" s="286">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E21" t="s" s="287">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F21" t="s" s="288">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="289">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="B22" t="s" s="290">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s" s="291">
         <v>12</v>
       </c>
       <c r="D22" t="s" s="292">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E22" t="s" s="293">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F22" t="s" s="294">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="295">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="B23" t="s" s="296">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C23" t="s" s="297">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D23" t="s" s="298">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E23" t="s" s="299">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F23" t="s" s="300">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24">
@@ -2797,282 +3311,221 @@
         <v>1</v>
       </c>
       <c r="C24" t="s" s="303">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D24" t="s" s="304">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E24" t="s" s="305">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F24" t="s" s="306">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="307">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="B25" t="s" s="308">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s" s="309">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D25" t="s" s="310">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E25" t="s" s="311">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F25" t="s" s="312">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="313">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="B26" t="s" s="314">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C26" t="s" s="315">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D26" t="s" s="316">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E26" t="s" s="317">
         <v>13</v>
       </c>
       <c r="F26" t="s" s="318">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="319">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="B27" t="s" s="320">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s" s="321">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D27" t="s" s="322">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s" s="323">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F27" t="s" s="324">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="325">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B28" t="s" s="326">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C28" t="s" s="327">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D28" t="s" s="328">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E28" t="s" s="329">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F28" t="s" s="330">
-        <v>13</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="331">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="B29" t="s" s="332">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C29" t="s" s="333">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D29" t="s" s="334">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E29" t="s" s="335">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F29" t="s" s="336">
-        <v>67</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="337">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="B30" t="s" s="338">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C30" t="s" s="339">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D30" t="s" s="340">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E30" t="s" s="341">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F30" t="s" s="342">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="343">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="B31" t="s" s="344">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C31" t="s" s="345">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D31" t="s" s="346">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E31" t="s" s="347">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="F31" t="s" s="348">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="349">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B32" t="s" s="350">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C32" t="s" s="351">
         <v>12</v>
       </c>
       <c r="D32" t="s" s="352">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E32" t="s" s="353">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="F32" t="s" s="354">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="355">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="B33" t="s" s="356">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C33" t="s" s="357">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D33" t="s" s="358">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E33" t="s" s="359">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F33" t="s" s="360">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="361">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="B34" t="s" s="362">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C34" t="s" s="363">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D34" t="s" s="364">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E34" t="s" s="365">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F34" t="s" s="366">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="367">
-        <v>68</v>
-      </c>
-      <c r="B35" t="s" s="368">
-        <v>15</v>
-      </c>
-      <c r="C35" t="s" s="369">
-        <v>12</v>
-      </c>
-      <c r="D35" t="s" s="370">
-        <v>18</v>
-      </c>
-      <c r="E35" t="s" s="371">
-        <v>13</v>
-      </c>
-      <c r="F35" t="s" s="372">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="373">
-        <v>1</v>
-      </c>
-      <c r="B36" t="s" s="374">
-        <v>1</v>
-      </c>
-      <c r="C36" t="s" s="375">
-        <v>19</v>
-      </c>
-      <c r="D36" t="s" s="376">
-        <v>18</v>
-      </c>
-      <c r="E36" t="s" s="377">
-        <v>13</v>
-      </c>
-      <c r="F36" t="s" s="378">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="379">
-        <v>71</v>
-      </c>
-      <c r="B37" t="s" s="380">
-        <v>18</v>
-      </c>
-      <c r="C37" t="s" s="381">
-        <v>12</v>
-      </c>
-      <c r="D37" t="s" s="382">
-        <v>18</v>
-      </c>
-      <c r="E37" t="s" s="383">
-        <v>13</v>
-      </c>
-      <c r="F37" t="s" s="384">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -3095,349 +3548,308 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="385">
+      <c r="A1" t="s" s="367">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="386">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="387">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="388">
+      <c r="B1" t="s" s="368">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="369">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="370">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="371">
         <v>72</v>
       </c>
-      <c r="E1" t="s" s="389">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="390">
+      <c r="F1" t="s" s="372">
         <v>73</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="391">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="392">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="393">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="394">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="395">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="396">
+      <c r="A2" t="s" s="373">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="374">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="375">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="376">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="377">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="378">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="397">
+      <c r="A3" t="s" s="379">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="398">
+      <c r="B3" t="s" s="380">
         <v>5</v>
       </c>
-      <c r="C3" t="s" s="399">
+      <c r="C3" t="s" s="381">
         <v>6</v>
       </c>
-      <c r="D3" t="s" s="400">
+      <c r="D3" t="s" s="382">
         <v>7</v>
       </c>
-      <c r="E3" t="s" s="401">
+      <c r="E3" t="s" s="383">
         <v>8</v>
       </c>
-      <c r="F3" t="s" s="402">
+      <c r="F3" t="s" s="384">
         <v>9</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="403">
+      <c r="A4" t="s" s="385">
         <v>74</v>
       </c>
-      <c r="B4" t="s" s="404">
+      <c r="B4" t="s" s="386">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s" s="387">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s" s="388">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s" s="389">
+        <v>75</v>
+      </c>
+      <c r="F4" t="s" s="390">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="391">
+        <v>76</v>
+      </c>
+      <c r="B5" t="s" s="392">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s" s="393">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s" s="394">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s" s="395">
+        <v>77</v>
+      </c>
+      <c r="F5" t="s" s="396">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="397">
+        <v>78</v>
+      </c>
+      <c r="B6" t="s" s="398">
+        <v>56</v>
+      </c>
+      <c r="C6" t="s" s="399">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s" s="400">
         <v>11</v>
       </c>
-      <c r="C4" t="s" s="405">
+      <c r="E6" t="s" s="401">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s" s="402">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="403">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s" s="404">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s" s="405">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s" s="406">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s" s="407">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s" s="408">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="409">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s" s="410">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s" s="411">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s" s="412">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s" s="413">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s" s="414">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="415">
+        <v>79</v>
+      </c>
+      <c r="B9" t="s" s="416">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s" s="417">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s" s="418">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s" s="419">
+        <v>80</v>
+      </c>
+      <c r="F9" t="s" s="420">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="421">
+        <v>81</v>
+      </c>
+      <c r="B10" t="s" s="422">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s" s="423">
         <v>12</v>
       </c>
-      <c r="D4" t="s" s="406">
+      <c r="D10" t="s" s="424">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s" s="425">
+        <v>82</v>
+      </c>
+      <c r="F10" t="s" s="426">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="427">
+        <v>83</v>
+      </c>
+      <c r="B11" t="s" s="428">
+        <v>84</v>
+      </c>
+      <c r="C11" t="s" s="429">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s" s="430">
+        <v>84</v>
+      </c>
+      <c r="E11" t="s" s="431">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s" s="432">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="433">
+        <v>86</v>
+      </c>
+      <c r="B12" t="s" s="434">
         <v>11</v>
       </c>
-      <c r="E4" t="s" s="407">
-        <v>75</v>
-      </c>
-      <c r="F4" t="s" s="408">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="409">
-        <v>77</v>
-      </c>
-      <c r="B5" t="s" s="410">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s" s="411">
+      <c r="C12" t="s" s="435">
         <v>12</v>
       </c>
-      <c r="D5" t="s" s="412">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s" s="413">
-        <v>78</v>
-      </c>
-      <c r="F5" t="s" s="414">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="415">
-        <v>79</v>
-      </c>
-      <c r="B6" t="s" s="416">
-        <v>31</v>
-      </c>
-      <c r="C6" t="s" s="417">
+      <c r="D12" t="s" s="436">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s" s="437">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s" s="438">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="439">
+        <v>87</v>
+      </c>
+      <c r="B13" t="s" s="440">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s" s="441">
         <v>12</v>
       </c>
-      <c r="D6" t="s" s="418">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s" s="419">
-        <v>80</v>
-      </c>
-      <c r="F6" t="s" s="420">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="421">
-        <v>81</v>
-      </c>
-      <c r="B7" t="s" s="422">
-        <v>56</v>
-      </c>
-      <c r="C7" t="s" s="423">
+      <c r="D13" t="s" s="442">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s" s="443">
+        <v>88</v>
+      </c>
+      <c r="F13" t="s" s="444">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="445">
+        <v>89</v>
+      </c>
+      <c r="B14" t="s" s="446">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s" s="447">
         <v>12</v>
       </c>
-      <c r="D7" t="s" s="424">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s" s="425">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s" s="426">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="427">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s" s="428">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s" s="429">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s" s="430">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s" s="431">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s" s="432">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="433">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s" s="434">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s" s="435">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s" s="436">
-        <v>18</v>
-      </c>
-      <c r="E9" t="s" s="437">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s" s="438">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="439">
-        <v>82</v>
-      </c>
-      <c r="B10" t="s" s="440">
+      <c r="D14" t="s" s="448">
         <v>11</v>
       </c>
-      <c r="C10" t="s" s="441">
-        <v>19</v>
-      </c>
-      <c r="D10" t="s" s="442">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s" s="443">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s" s="444">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="445">
-        <v>84</v>
-      </c>
-      <c r="B11" t="s" s="446">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s" s="447">
-        <v>19</v>
-      </c>
-      <c r="D11" t="s" s="448">
-        <v>11</v>
-      </c>
-      <c r="E11" t="s" s="449">
-        <v>85</v>
-      </c>
-      <c r="F11" t="s" s="450">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="451">
-        <v>86</v>
-      </c>
-      <c r="B12" t="s" s="452">
-        <v>18</v>
-      </c>
-      <c r="C12" t="s" s="453">
-        <v>12</v>
-      </c>
-      <c r="D12" t="s" s="454">
-        <v>18</v>
-      </c>
-      <c r="E12" t="s" s="455">
-        <v>87</v>
-      </c>
-      <c r="F12" t="s" s="456">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="457">
-        <v>88</v>
-      </c>
-      <c r="B13" t="s" s="458">
-        <v>89</v>
-      </c>
-      <c r="C13" t="s" s="459">
-        <v>22</v>
-      </c>
-      <c r="D13" t="s" s="460">
-        <v>89</v>
-      </c>
-      <c r="E13" t="s" s="461">
-        <v>13</v>
-      </c>
-      <c r="F13" t="s" s="462">
+      <c r="E14" t="s" s="449">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s" s="450">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="451">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s" s="452">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s" s="453">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s" s="454">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s" s="455">
         <v>90</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="463">
-        <v>91</v>
-      </c>
-      <c r="B14" t="s" s="464">
-        <v>15</v>
-      </c>
-      <c r="C14" t="s" s="465">
-        <v>12</v>
-      </c>
-      <c r="D14" t="s" s="466">
-        <v>15</v>
-      </c>
-      <c r="E14" t="s" s="467">
-        <v>13</v>
-      </c>
-      <c r="F14" t="s" s="468">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="469">
-        <v>92</v>
-      </c>
-      <c r="B15" t="s" s="470">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s" s="471">
-        <v>12</v>
-      </c>
-      <c r="D15" t="s" s="472">
-        <v>15</v>
-      </c>
-      <c r="E15" t="s" s="473">
-        <v>93</v>
-      </c>
-      <c r="F15" t="s" s="474">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="475">
-        <v>94</v>
-      </c>
-      <c r="B16" t="s" s="476">
-        <v>11</v>
-      </c>
-      <c r="C16" t="s" s="477">
-        <v>12</v>
-      </c>
-      <c r="D16" t="s" s="478">
-        <v>15</v>
-      </c>
-      <c r="E16" t="s" s="479">
-        <v>13</v>
-      </c>
-      <c r="F16" t="s" s="480">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="481">
-        <v>1</v>
-      </c>
-      <c r="B17" t="s" s="482">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s" s="483">
-        <v>19</v>
-      </c>
-      <c r="D17" t="s" s="484">
-        <v>18</v>
-      </c>
-      <c r="E17" t="s" s="485">
-        <v>95</v>
-      </c>
-      <c r="F17" t="s" s="486">
-        <v>13</v>
+      <c r="F15" t="s" s="456">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
